--- a/natmiOut/YoungD2/LR-pairs_lrc2p/Icam1-Il2ra.xlsx
+++ b/natmiOut/YoungD2/LR-pairs_lrc2p/Icam1-Il2ra.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="92" uniqueCount="28">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="164" uniqueCount="28">
   <si>
     <t>Sending cluster</t>
   </si>
@@ -455,7 +455,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:T19"/>
+  <dimension ref="A1:T37"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -537,52 +537,52 @@
         <v>20</v>
       </c>
       <c r="E2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F2">
         <v>1</v>
       </c>
       <c r="G2">
-        <v>10.024809748065</v>
+        <v>17.642385</v>
       </c>
       <c r="H2">
-        <v>10.024809748065</v>
+        <v>52.927155</v>
       </c>
       <c r="I2">
-        <v>0.02667103285060698</v>
+        <v>0.04400342879047246</v>
       </c>
       <c r="J2">
-        <v>0.02667103285060698</v>
+        <v>0.04400342879047246</v>
       </c>
       <c r="K2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L2">
         <v>1</v>
       </c>
       <c r="M2">
-        <v>0.156696452463808</v>
+        <v>0.3169463333333333</v>
       </c>
       <c r="N2">
-        <v>0.156696452463808</v>
+        <v>0.950839</v>
       </c>
       <c r="O2">
-        <v>0.09193967440524399</v>
+        <v>0.1405271265494778</v>
       </c>
       <c r="P2">
-        <v>0.09193967440524399</v>
+        <v>0.1405271265494778</v>
       </c>
       <c r="Q2">
-        <v>1.570852124146386</v>
+        <v>5.591689237005</v>
       </c>
       <c r="R2">
-        <v>1.570852124146386</v>
+        <v>50.325203133045</v>
       </c>
       <c r="S2">
-        <v>0.002452126076336373</v>
+        <v>0.006183675406249659</v>
       </c>
       <c r="T2">
-        <v>0.002452126076336373</v>
+        <v>0.006183675406249659</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -596,55 +596,55 @@
         <v>27</v>
       </c>
       <c r="D3" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="E3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F3">
         <v>1</v>
       </c>
       <c r="G3">
-        <v>10.024809748065</v>
+        <v>17.642385</v>
       </c>
       <c r="H3">
-        <v>10.024809748065</v>
+        <v>52.927155</v>
       </c>
       <c r="I3">
-        <v>0.02667103285060698</v>
+        <v>0.04400342879047246</v>
       </c>
       <c r="J3">
-        <v>0.02667103285060698</v>
+        <v>0.04400342879047246</v>
       </c>
       <c r="K3">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L3">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="M3">
-        <v>0.676450951021261</v>
+        <v>0.09032566666666668</v>
       </c>
       <c r="N3">
-        <v>0.676450951021261</v>
+        <v>0.270977</v>
       </c>
       <c r="O3">
-        <v>0.3968990950983843</v>
+        <v>0.04004844055723193</v>
       </c>
       <c r="P3">
-        <v>0.3968990950983843</v>
+        <v>0.04004844055723194</v>
       </c>
       <c r="Q3">
-        <v>6.781292087885777</v>
+        <v>1.593560186715</v>
       </c>
       <c r="R3">
-        <v>6.781292087885777</v>
+        <v>14.342041680435</v>
       </c>
       <c r="S3">
-        <v>0.01058570880374519</v>
+        <v>0.001762268702229624</v>
       </c>
       <c r="T3">
-        <v>0.01058570880374519</v>
+        <v>0.001762268702229625</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -658,60 +658,60 @@
         <v>27</v>
       </c>
       <c r="D4" t="s">
-        <v>25</v>
+        <v>22</v>
       </c>
       <c r="E4">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F4">
         <v>1</v>
       </c>
       <c r="G4">
-        <v>10.024809748065</v>
+        <v>17.642385</v>
       </c>
       <c r="H4">
-        <v>10.024809748065</v>
+        <v>52.927155</v>
       </c>
       <c r="I4">
-        <v>0.02667103285060698</v>
+        <v>0.04400342879047246</v>
       </c>
       <c r="J4">
-        <v>0.02667103285060698</v>
+        <v>0.04400342879047246</v>
       </c>
       <c r="K4">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L4">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="M4">
-        <v>0.871192463688427</v>
+        <v>0.1340643333333333</v>
       </c>
       <c r="N4">
-        <v>0.871192463688427</v>
+        <v>0.402193</v>
       </c>
       <c r="O4">
-        <v>0.5111612304963717</v>
+        <v>0.05944121623988301</v>
       </c>
       <c r="P4">
-        <v>0.5111612304963717</v>
+        <v>0.05944121623988302</v>
       </c>
       <c r="Q4">
-        <v>8.733538702424505</v>
+        <v>2.365214583435</v>
       </c>
       <c r="R4">
-        <v>8.733538702424505</v>
+        <v>21.286931250915</v>
       </c>
       <c r="S4">
-        <v>0.01363319797052542</v>
+        <v>0.002615617326030767</v>
       </c>
       <c r="T4">
-        <v>0.01363319797052542</v>
+        <v>0.002615617326030768</v>
       </c>
     </row>
     <row r="5" spans="1:20">
       <c r="A5" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B5" t="s">
         <v>26</v>
@@ -720,60 +720,60 @@
         <v>27</v>
       </c>
       <c r="D5" t="s">
-        <v>20</v>
+        <v>23</v>
       </c>
       <c r="E5">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F5">
         <v>1</v>
       </c>
       <c r="G5">
-        <v>18.7272453100143</v>
+        <v>17.642385</v>
       </c>
       <c r="H5">
-        <v>18.7272453100143</v>
+        <v>52.927155</v>
       </c>
       <c r="I5">
-        <v>0.04982388568133937</v>
+        <v>0.04400342879047246</v>
       </c>
       <c r="J5">
-        <v>0.04982388568133937</v>
+        <v>0.04400342879047246</v>
       </c>
       <c r="K5">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L5">
         <v>1</v>
       </c>
       <c r="M5">
-        <v>0.156696452463808</v>
+        <v>0.7546816666666668</v>
       </c>
       <c r="N5">
-        <v>0.156696452463808</v>
+        <v>2.264045</v>
       </c>
       <c r="O5">
-        <v>0.09193967440524399</v>
+        <v>0.3346094746100156</v>
       </c>
       <c r="P5">
-        <v>0.09193967440524399</v>
+        <v>0.3346094746100156</v>
       </c>
       <c r="Q5">
-        <v>2.934492904498727</v>
+        <v>13.314384515775</v>
       </c>
       <c r="R5">
-        <v>2.934492904498727</v>
+        <v>119.829460641975</v>
       </c>
       <c r="S5">
-        <v>0.00458079182714644</v>
+        <v>0.01472396418861922</v>
       </c>
       <c r="T5">
-        <v>0.00458079182714644</v>
+        <v>0.01472396418861922</v>
       </c>
     </row>
     <row r="6" spans="1:20">
       <c r="A6" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B6" t="s">
         <v>26</v>
@@ -782,60 +782,60 @@
         <v>27</v>
       </c>
       <c r="D6" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="E6">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F6">
         <v>1</v>
       </c>
       <c r="G6">
-        <v>18.7272453100143</v>
+        <v>17.642385</v>
       </c>
       <c r="H6">
-        <v>18.7272453100143</v>
+        <v>52.927155</v>
       </c>
       <c r="I6">
-        <v>0.04982388568133937</v>
+        <v>0.04400342879047246</v>
       </c>
       <c r="J6">
-        <v>0.04982388568133937</v>
+        <v>0.04400342879047246</v>
       </c>
       <c r="K6">
         <v>1</v>
       </c>
       <c r="L6">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="M6">
-        <v>0.676450951021261</v>
+        <v>0.01539166666666667</v>
       </c>
       <c r="N6">
-        <v>0.676450951021261</v>
+        <v>0.046175</v>
       </c>
       <c r="O6">
-        <v>0.3968990950983843</v>
+        <v>0.00682433100495682</v>
       </c>
       <c r="P6">
-        <v>0.3968990950983843</v>
+        <v>0.006824331004956822</v>
       </c>
       <c r="Q6">
-        <v>12.66806289996762</v>
+        <v>0.271545709125</v>
       </c>
       <c r="R6">
-        <v>12.66806289996762</v>
+        <v>2.443911382125</v>
       </c>
       <c r="S6">
-        <v>0.01977505514120894</v>
+        <v>0.0003002939634192308</v>
       </c>
       <c r="T6">
-        <v>0.01977505514120894</v>
+        <v>0.0003002939634192309</v>
       </c>
     </row>
     <row r="7" spans="1:20">
       <c r="A7" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B7" t="s">
         <v>26</v>
@@ -847,57 +847,57 @@
         <v>25</v>
       </c>
       <c r="E7">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F7">
         <v>1</v>
       </c>
       <c r="G7">
-        <v>18.7272453100143</v>
+        <v>17.642385</v>
       </c>
       <c r="H7">
-        <v>18.7272453100143</v>
+        <v>52.927155</v>
       </c>
       <c r="I7">
-        <v>0.04982388568133937</v>
+        <v>0.04400342879047246</v>
       </c>
       <c r="J7">
-        <v>0.04982388568133937</v>
+        <v>0.04400342879047246</v>
       </c>
       <c r="K7">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L7">
         <v>1</v>
       </c>
       <c r="M7">
-        <v>0.871192463688427</v>
+        <v>0.9440006666666667</v>
       </c>
       <c r="N7">
-        <v>0.871192463688427</v>
+        <v>2.832002</v>
       </c>
       <c r="O7">
-        <v>0.5111612304963717</v>
+        <v>0.4185494110384348</v>
       </c>
       <c r="P7">
-        <v>0.5111612304963717</v>
+        <v>0.4185494110384348</v>
       </c>
       <c r="Q7">
-        <v>16.3150349797289</v>
+        <v>16.65442320159</v>
       </c>
       <c r="R7">
-        <v>16.3150349797289</v>
+        <v>149.88980881431</v>
       </c>
       <c r="S7">
-        <v>0.02546803871298399</v>
+        <v>0.01841760920392395</v>
       </c>
       <c r="T7">
-        <v>0.02546803871298399</v>
+        <v>0.01841760920392396</v>
       </c>
     </row>
     <row r="8" spans="1:20">
       <c r="A8" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B8" t="s">
         <v>26</v>
@@ -909,57 +909,57 @@
         <v>20</v>
       </c>
       <c r="E8">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F8">
         <v>1</v>
       </c>
       <c r="G8">
-        <v>40.0714852946813</v>
+        <v>18.78801466666667</v>
       </c>
       <c r="H8">
-        <v>40.0714852946813</v>
+        <v>56.364044</v>
       </c>
       <c r="I8">
-        <v>0.1066102926166106</v>
+        <v>0.04686084480635802</v>
       </c>
       <c r="J8">
-        <v>0.1066102926166106</v>
+        <v>0.04686084480635803</v>
       </c>
       <c r="K8">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L8">
         <v>1</v>
       </c>
       <c r="M8">
-        <v>0.156696452463808</v>
+        <v>0.3169463333333333</v>
       </c>
       <c r="N8">
-        <v>0.156696452463808</v>
+        <v>0.950839</v>
       </c>
       <c r="O8">
-        <v>0.09193967440524399</v>
+        <v>0.1405271265494778</v>
       </c>
       <c r="P8">
-        <v>0.09193967440524399</v>
+        <v>0.1405271265494778</v>
       </c>
       <c r="Q8">
-        <v>6.27905959063221</v>
+        <v>5.954792359212888</v>
       </c>
       <c r="R8">
-        <v>6.27905959063221</v>
+        <v>53.593131232916</v>
       </c>
       <c r="S8">
-        <v>0.009801715591418963</v>
+        <v>0.006585219868318514</v>
       </c>
       <c r="T8">
-        <v>0.009801715591418963</v>
+        <v>0.006585219868318517</v>
       </c>
     </row>
     <row r="9" spans="1:20">
       <c r="A9" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B9" t="s">
         <v>26</v>
@@ -968,184 +968,184 @@
         <v>27</v>
       </c>
       <c r="D9" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="E9">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F9">
         <v>1</v>
       </c>
       <c r="G9">
-        <v>40.0714852946813</v>
+        <v>18.78801466666667</v>
       </c>
       <c r="H9">
-        <v>40.0714852946813</v>
+        <v>56.364044</v>
       </c>
       <c r="I9">
-        <v>0.1066102926166106</v>
+        <v>0.04686084480635802</v>
       </c>
       <c r="J9">
-        <v>0.1066102926166106</v>
+        <v>0.04686084480635803</v>
       </c>
       <c r="K9">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L9">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="M9">
-        <v>0.676450951021261</v>
+        <v>0.09032566666666668</v>
       </c>
       <c r="N9">
-        <v>0.676450951021261</v>
+        <v>0.270977</v>
       </c>
       <c r="O9">
-        <v>0.3968990950983843</v>
+        <v>0.04004844055723193</v>
       </c>
       <c r="P9">
-        <v>0.3968990950983843</v>
+        <v>0.04004844055723194</v>
       </c>
       <c r="Q9">
-        <v>27.10639433642164</v>
+        <v>1.697039950109778</v>
       </c>
       <c r="R9">
-        <v>27.10639433642164</v>
+        <v>15.273359550988</v>
       </c>
       <c r="S9">
-        <v>0.0423135286677067</v>
+        <v>0.0018767037576891</v>
       </c>
       <c r="T9">
-        <v>0.0423135286677067</v>
+        <v>0.001876703757689101</v>
       </c>
     </row>
     <row r="10" spans="1:20">
       <c r="A10" t="s">
+        <v>21</v>
+      </c>
+      <c r="B10" t="s">
+        <v>26</v>
+      </c>
+      <c r="C10" t="s">
+        <v>27</v>
+      </c>
+      <c r="D10" t="s">
         <v>22</v>
       </c>
-      <c r="B10" t="s">
-        <v>26</v>
-      </c>
-      <c r="C10" t="s">
-        <v>27</v>
-      </c>
-      <c r="D10" t="s">
-        <v>25</v>
-      </c>
       <c r="E10">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F10">
         <v>1</v>
       </c>
       <c r="G10">
-        <v>40.0714852946813</v>
+        <v>18.78801466666667</v>
       </c>
       <c r="H10">
-        <v>40.0714852946813</v>
+        <v>56.364044</v>
       </c>
       <c r="I10">
-        <v>0.1066102926166106</v>
+        <v>0.04686084480635802</v>
       </c>
       <c r="J10">
-        <v>0.1066102926166106</v>
+        <v>0.04686084480635803</v>
       </c>
       <c r="K10">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L10">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="M10">
-        <v>0.871192463688427</v>
+        <v>0.1340643333333333</v>
       </c>
       <c r="N10">
-        <v>0.871192463688427</v>
+        <v>0.402193</v>
       </c>
       <c r="O10">
-        <v>0.5111612304963717</v>
+        <v>0.05944121623988301</v>
       </c>
       <c r="P10">
-        <v>0.5111612304963717</v>
+        <v>0.05944121623988302</v>
       </c>
       <c r="Q10">
-        <v>34.90997599752797</v>
+        <v>2.518802660943555</v>
       </c>
       <c r="R10">
-        <v>34.90997599752797</v>
+        <v>22.669223948492</v>
       </c>
       <c r="S10">
-        <v>0.05449504835748492</v>
+        <v>0.002785465609318326</v>
       </c>
       <c r="T10">
-        <v>0.05449504835748492</v>
+        <v>0.002785465609318327</v>
       </c>
     </row>
     <row r="11" spans="1:20">
       <c r="A11" t="s">
+        <v>21</v>
+      </c>
+      <c r="B11" t="s">
+        <v>26</v>
+      </c>
+      <c r="C11" t="s">
+        <v>27</v>
+      </c>
+      <c r="D11" t="s">
         <v>23</v>
       </c>
-      <c r="B11" t="s">
-        <v>26</v>
-      </c>
-      <c r="C11" t="s">
-        <v>27</v>
-      </c>
-      <c r="D11" t="s">
-        <v>20</v>
-      </c>
       <c r="E11">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F11">
         <v>1</v>
       </c>
       <c r="G11">
-        <v>51.2023791341376</v>
+        <v>18.78801466666667</v>
       </c>
       <c r="H11">
-        <v>51.2023791341376</v>
+        <v>56.364044</v>
       </c>
       <c r="I11">
-        <v>0.136224065117985</v>
+        <v>0.04686084480635802</v>
       </c>
       <c r="J11">
-        <v>0.136224065117985</v>
+        <v>0.04686084480635803</v>
       </c>
       <c r="K11">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L11">
         <v>1</v>
       </c>
       <c r="M11">
-        <v>0.156696452463808</v>
+        <v>0.7546816666666668</v>
       </c>
       <c r="N11">
-        <v>0.156696452463808</v>
+        <v>2.264045</v>
       </c>
       <c r="O11">
-        <v>0.09193967440524399</v>
+        <v>0.3346094746100156</v>
       </c>
       <c r="P11">
-        <v>0.09193967440524399</v>
+        <v>0.3346094746100156</v>
       </c>
       <c r="Q11">
-        <v>8.023231168026268</v>
+        <v>14.17897022199778</v>
       </c>
       <c r="R11">
-        <v>8.023231168026268</v>
+        <v>127.61073199798</v>
       </c>
       <c r="S11">
-        <v>0.0125243961931063</v>
+        <v>0.01568008266043693</v>
       </c>
       <c r="T11">
-        <v>0.0125243961931063</v>
+        <v>0.01568008266043694</v>
       </c>
     </row>
     <row r="12" spans="1:20">
       <c r="A12" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="B12" t="s">
         <v>26</v>
@@ -1154,60 +1154,60 @@
         <v>27</v>
       </c>
       <c r="D12" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="E12">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F12">
         <v>1</v>
       </c>
       <c r="G12">
-        <v>51.2023791341376</v>
+        <v>18.78801466666667</v>
       </c>
       <c r="H12">
-        <v>51.2023791341376</v>
+        <v>56.364044</v>
       </c>
       <c r="I12">
-        <v>0.136224065117985</v>
+        <v>0.04686084480635802</v>
       </c>
       <c r="J12">
-        <v>0.136224065117985</v>
+        <v>0.04686084480635803</v>
       </c>
       <c r="K12">
         <v>1</v>
       </c>
       <c r="L12">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="M12">
-        <v>0.676450951021261</v>
+        <v>0.01539166666666667</v>
       </c>
       <c r="N12">
-        <v>0.676450951021261</v>
+        <v>0.046175</v>
       </c>
       <c r="O12">
-        <v>0.3968990950983843</v>
+        <v>0.00682433100495682</v>
       </c>
       <c r="P12">
-        <v>0.3968990950983843</v>
+        <v>0.006824331004956822</v>
       </c>
       <c r="Q12">
-        <v>34.63589805983855</v>
+        <v>0.2891788590777777</v>
       </c>
       <c r="R12">
-        <v>34.63589805983855</v>
+        <v>2.6026097317</v>
       </c>
       <c r="S12">
-        <v>0.05406720817595164</v>
+        <v>0.0003197939161304988</v>
       </c>
       <c r="T12">
-        <v>0.05406720817595164</v>
+        <v>0.000319793916130499</v>
       </c>
     </row>
     <row r="13" spans="1:20">
       <c r="A13" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="B13" t="s">
         <v>26</v>
@@ -1219,57 +1219,57 @@
         <v>25</v>
       </c>
       <c r="E13">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F13">
         <v>1</v>
       </c>
       <c r="G13">
-        <v>51.2023791341376</v>
+        <v>18.78801466666667</v>
       </c>
       <c r="H13">
-        <v>51.2023791341376</v>
+        <v>56.364044</v>
       </c>
       <c r="I13">
-        <v>0.136224065117985</v>
+        <v>0.04686084480635802</v>
       </c>
       <c r="J13">
-        <v>0.136224065117985</v>
+        <v>0.04686084480635803</v>
       </c>
       <c r="K13">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L13">
         <v>1</v>
       </c>
       <c r="M13">
-        <v>0.871192463688427</v>
+        <v>0.9440006666666667</v>
       </c>
       <c r="N13">
-        <v>0.871192463688427</v>
+        <v>2.832002</v>
       </c>
       <c r="O13">
-        <v>0.5111612304963717</v>
+        <v>0.4185494110384348</v>
       </c>
       <c r="P13">
-        <v>0.5111612304963717</v>
+        <v>0.4185494110384348</v>
       </c>
       <c r="Q13">
-        <v>44.60712682457824</v>
+        <v>17.73589837067644</v>
       </c>
       <c r="R13">
-        <v>44.60712682457824</v>
+        <v>159.623085336088</v>
       </c>
       <c r="S13">
-        <v>0.06963246074892711</v>
+        <v>0.01961357899446465</v>
       </c>
       <c r="T13">
-        <v>0.06963246074892711</v>
+        <v>0.01961357899446465</v>
       </c>
     </row>
     <row r="14" spans="1:20">
       <c r="A14" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="B14" t="s">
         <v>26</v>
@@ -1281,57 +1281,57 @@
         <v>20</v>
       </c>
       <c r="E14">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F14">
         <v>1</v>
       </c>
       <c r="G14">
-        <v>254.357849436458</v>
+        <v>44.82177033333333</v>
       </c>
       <c r="H14">
-        <v>254.357849436458</v>
+        <v>134.465311</v>
       </c>
       <c r="I14">
-        <v>0.6767197312087613</v>
+        <v>0.1117939314398673</v>
       </c>
       <c r="J14">
-        <v>0.6767197312087613</v>
+        <v>0.1117939314398674</v>
       </c>
       <c r="K14">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L14">
         <v>1</v>
       </c>
       <c r="M14">
-        <v>0.156696452463808</v>
+        <v>0.3169463333333333</v>
       </c>
       <c r="N14">
-        <v>0.156696452463808</v>
+        <v>0.950839</v>
       </c>
       <c r="O14">
-        <v>0.09193967440524399</v>
+        <v>0.1405271265494778</v>
       </c>
       <c r="P14">
-        <v>0.09193967440524399</v>
+        <v>0.1405271265494778</v>
       </c>
       <c r="Q14">
-        <v>39.85697266301637</v>
+        <v>14.20609576065877</v>
       </c>
       <c r="R14">
-        <v>39.85697266301637</v>
+        <v>127.854861845929</v>
       </c>
       <c r="S14">
-        <v>0.06221739175093774</v>
+        <v>0.01571007995091388</v>
       </c>
       <c r="T14">
-        <v>0.06221739175093774</v>
+        <v>0.01571007995091389</v>
       </c>
     </row>
     <row r="15" spans="1:20">
       <c r="A15" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="B15" t="s">
         <v>26</v>
@@ -1340,60 +1340,60 @@
         <v>27</v>
       </c>
       <c r="D15" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="E15">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F15">
         <v>1</v>
       </c>
       <c r="G15">
-        <v>254.357849436458</v>
+        <v>44.82177033333333</v>
       </c>
       <c r="H15">
-        <v>254.357849436458</v>
+        <v>134.465311</v>
       </c>
       <c r="I15">
-        <v>0.6767197312087613</v>
+        <v>0.1117939314398673</v>
       </c>
       <c r="J15">
-        <v>0.6767197312087613</v>
+        <v>0.1117939314398674</v>
       </c>
       <c r="K15">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L15">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="M15">
-        <v>0.676450951021261</v>
+        <v>0.09032566666666668</v>
       </c>
       <c r="N15">
-        <v>0.676450951021261</v>
+        <v>0.270977</v>
       </c>
       <c r="O15">
-        <v>0.3968990950983843</v>
+        <v>0.04004844055723193</v>
       </c>
       <c r="P15">
-        <v>0.3968990950983843</v>
+        <v>0.04004844055723194</v>
       </c>
       <c r="Q15">
-        <v>172.0606091510147</v>
+        <v>4.048556286538555</v>
       </c>
       <c r="R15">
-        <v>172.0606091510147</v>
+        <v>36.437006578847</v>
       </c>
       <c r="S15">
-        <v>0.2685894489519792</v>
+        <v>0.004477172617928789</v>
       </c>
       <c r="T15">
-        <v>0.2685894489519792</v>
+        <v>0.00447717261792879</v>
       </c>
     </row>
     <row r="16" spans="1:20">
       <c r="A16" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="B16" t="s">
         <v>26</v>
@@ -1402,60 +1402,60 @@
         <v>27</v>
       </c>
       <c r="D16" t="s">
-        <v>25</v>
+        <v>22</v>
       </c>
       <c r="E16">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F16">
         <v>1</v>
       </c>
       <c r="G16">
-        <v>254.357849436458</v>
+        <v>44.82177033333333</v>
       </c>
       <c r="H16">
-        <v>254.357849436458</v>
+        <v>134.465311</v>
       </c>
       <c r="I16">
-        <v>0.6767197312087613</v>
+        <v>0.1117939314398673</v>
       </c>
       <c r="J16">
-        <v>0.6767197312087613</v>
+        <v>0.1117939314398674</v>
       </c>
       <c r="K16">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L16">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="M16">
-        <v>0.871192463688427</v>
+        <v>0.1340643333333333</v>
       </c>
       <c r="N16">
-        <v>0.871192463688427</v>
+        <v>0.402193</v>
       </c>
       <c r="O16">
-        <v>0.5111612304963717</v>
+        <v>0.05944121623988301</v>
       </c>
       <c r="P16">
-        <v>0.5111612304963717</v>
+        <v>0.05944121623988302</v>
       </c>
       <c r="Q16">
-        <v>221.5946415090378</v>
+        <v>6.009000758558109</v>
       </c>
       <c r="R16">
-        <v>221.5946415090378</v>
+        <v>54.08100682702299</v>
       </c>
       <c r="S16">
-        <v>0.3459128905058443</v>
+        <v>0.00664516725302381</v>
       </c>
       <c r="T16">
-        <v>0.3459128905058443</v>
+        <v>0.006645167253023812</v>
       </c>
     </row>
     <row r="17" spans="1:20">
       <c r="A17" t="s">
-        <v>25</v>
+        <v>22</v>
       </c>
       <c r="B17" t="s">
         <v>26</v>
@@ -1464,60 +1464,60 @@
         <v>27</v>
       </c>
       <c r="D17" t="s">
-        <v>20</v>
+        <v>23</v>
       </c>
       <c r="E17">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F17">
         <v>1</v>
       </c>
       <c r="G17">
-        <v>1.48505491324496</v>
+        <v>44.82177033333333</v>
       </c>
       <c r="H17">
-        <v>1.48505491324496</v>
+        <v>134.465311</v>
       </c>
       <c r="I17">
-        <v>0.003950992524696721</v>
+        <v>0.1117939314398673</v>
       </c>
       <c r="J17">
-        <v>0.003950992524696721</v>
+        <v>0.1117939314398674</v>
       </c>
       <c r="K17">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L17">
         <v>1</v>
       </c>
       <c r="M17">
-        <v>0.156696452463808</v>
+        <v>0.7546816666666668</v>
       </c>
       <c r="N17">
-        <v>0.156696452463808</v>
+        <v>2.264045</v>
       </c>
       <c r="O17">
-        <v>0.09193967440524399</v>
+        <v>0.3346094746100156</v>
       </c>
       <c r="P17">
-        <v>0.09193967440524399</v>
+        <v>0.3346094746100156</v>
       </c>
       <c r="Q17">
-        <v>0.2327028366194334</v>
+        <v>33.82616833811056</v>
       </c>
       <c r="R17">
-        <v>0.2327028366194334</v>
+        <v>304.435515042995</v>
       </c>
       <c r="S17">
-        <v>0.0003632529662981695</v>
+        <v>0.0374073086636821</v>
       </c>
       <c r="T17">
-        <v>0.0003632529662981695</v>
+        <v>0.03740730866368212</v>
       </c>
     </row>
     <row r="18" spans="1:20">
       <c r="A18" t="s">
-        <v>25</v>
+        <v>22</v>
       </c>
       <c r="B18" t="s">
         <v>26</v>
@@ -1526,60 +1526,60 @@
         <v>27</v>
       </c>
       <c r="D18" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="E18">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F18">
         <v>1</v>
       </c>
       <c r="G18">
-        <v>1.48505491324496</v>
+        <v>44.82177033333333</v>
       </c>
       <c r="H18">
-        <v>1.48505491324496</v>
+        <v>134.465311</v>
       </c>
       <c r="I18">
-        <v>0.003950992524696721</v>
+        <v>0.1117939314398673</v>
       </c>
       <c r="J18">
-        <v>0.003950992524696721</v>
+        <v>0.1117939314398674</v>
       </c>
       <c r="K18">
         <v>1</v>
       </c>
       <c r="L18">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="M18">
-        <v>0.676450951021261</v>
+        <v>0.01539166666666667</v>
       </c>
       <c r="N18">
-        <v>0.676450951021261</v>
+        <v>0.046175</v>
       </c>
       <c r="O18">
-        <v>0.3968990950983843</v>
+        <v>0.00682433100495682</v>
       </c>
       <c r="P18">
-        <v>0.3968990950983843</v>
+        <v>0.006824331004956822</v>
       </c>
       <c r="Q18">
-        <v>1.004566808383349</v>
+        <v>0.6898817483805554</v>
       </c>
       <c r="R18">
-        <v>1.004566808383349</v>
+        <v>6.208935735424999</v>
       </c>
       <c r="S18">
-        <v>0.00156814535779261</v>
+        <v>0.0007629187924911036</v>
       </c>
       <c r="T18">
-        <v>0.00156814535779261</v>
+        <v>0.000762918792491104</v>
       </c>
     </row>
     <row r="19" spans="1:20">
       <c r="A19" t="s">
-        <v>25</v>
+        <v>22</v>
       </c>
       <c r="B19" t="s">
         <v>26</v>
@@ -1591,52 +1591,1168 @@
         <v>25</v>
       </c>
       <c r="E19">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F19">
         <v>1</v>
       </c>
       <c r="G19">
-        <v>1.48505491324496</v>
+        <v>44.82177033333333</v>
       </c>
       <c r="H19">
-        <v>1.48505491324496</v>
+        <v>134.465311</v>
       </c>
       <c r="I19">
-        <v>0.003950992524696721</v>
+        <v>0.1117939314398673</v>
       </c>
       <c r="J19">
-        <v>0.003950992524696721</v>
+        <v>0.1117939314398674</v>
       </c>
       <c r="K19">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L19">
         <v>1</v>
       </c>
       <c r="M19">
-        <v>0.871192463688427</v>
+        <v>0.9440006666666667</v>
       </c>
       <c r="N19">
-        <v>0.871192463688427</v>
+        <v>2.832002</v>
       </c>
       <c r="O19">
-        <v>0.5111612304963717</v>
+        <v>0.4185494110384348</v>
       </c>
       <c r="P19">
-        <v>0.5111612304963717</v>
+        <v>0.4185494110384348</v>
       </c>
       <c r="Q19">
-        <v>1.29376864858248</v>
+        <v>42.31178107584688</v>
       </c>
       <c r="R19">
-        <v>1.29376864858248</v>
+        <v>380.806029682622</v>
       </c>
       <c r="S19">
-        <v>0.002019594200605942</v>
+        <v>0.04679128416182762</v>
       </c>
       <c r="T19">
-        <v>0.002019594200605942</v>
+        <v>0.04679128416182764</v>
+      </c>
+    </row>
+    <row r="20" spans="1:20">
+      <c r="A20" t="s">
+        <v>23</v>
+      </c>
+      <c r="B20" t="s">
+        <v>26</v>
+      </c>
+      <c r="C20" t="s">
+        <v>27</v>
+      </c>
+      <c r="D20" t="s">
+        <v>20</v>
+      </c>
+      <c r="E20">
+        <v>3</v>
+      </c>
+      <c r="F20">
+        <v>1</v>
+      </c>
+      <c r="G20">
+        <v>51.213492</v>
+      </c>
+      <c r="H20">
+        <v>153.640476</v>
+      </c>
+      <c r="I20">
+        <v>0.1277360883085496</v>
+      </c>
+      <c r="J20">
+        <v>0.1277360883085496</v>
+      </c>
+      <c r="K20">
+        <v>3</v>
+      </c>
+      <c r="L20">
+        <v>1</v>
+      </c>
+      <c r="M20">
+        <v>0.3169463333333333</v>
+      </c>
+      <c r="N20">
+        <v>0.950839</v>
+      </c>
+      <c r="O20">
+        <v>0.1405271265494778</v>
+      </c>
+      <c r="P20">
+        <v>0.1405271265494778</v>
+      </c>
+      <c r="Q20">
+        <v>16.231928506596</v>
+      </c>
+      <c r="R20">
+        <v>146.087356559364</v>
+      </c>
+      <c r="S20">
+        <v>0.01795038544667082</v>
+      </c>
+      <c r="T20">
+        <v>0.01795038544667083</v>
+      </c>
+    </row>
+    <row r="21" spans="1:20">
+      <c r="A21" t="s">
+        <v>23</v>
+      </c>
+      <c r="B21" t="s">
+        <v>26</v>
+      </c>
+      <c r="C21" t="s">
+        <v>27</v>
+      </c>
+      <c r="D21" t="s">
+        <v>21</v>
+      </c>
+      <c r="E21">
+        <v>3</v>
+      </c>
+      <c r="F21">
+        <v>1</v>
+      </c>
+      <c r="G21">
+        <v>51.213492</v>
+      </c>
+      <c r="H21">
+        <v>153.640476</v>
+      </c>
+      <c r="I21">
+        <v>0.1277360883085496</v>
+      </c>
+      <c r="J21">
+        <v>0.1277360883085496</v>
+      </c>
+      <c r="K21">
+        <v>2</v>
+      </c>
+      <c r="L21">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="M21">
+        <v>0.09032566666666668</v>
+      </c>
+      <c r="N21">
+        <v>0.270977</v>
+      </c>
+      <c r="O21">
+        <v>0.04004844055723193</v>
+      </c>
+      <c r="P21">
+        <v>0.04004844055723194</v>
+      </c>
+      <c r="Q21">
+        <v>4.625892807228001</v>
+      </c>
+      <c r="R21">
+        <v>41.63303526505201</v>
+      </c>
+      <c r="S21">
+        <v>0.005115631139638277</v>
+      </c>
+      <c r="T21">
+        <v>0.005115631139638279</v>
+      </c>
+    </row>
+    <row r="22" spans="1:20">
+      <c r="A22" t="s">
+        <v>23</v>
+      </c>
+      <c r="B22" t="s">
+        <v>26</v>
+      </c>
+      <c r="C22" t="s">
+        <v>27</v>
+      </c>
+      <c r="D22" t="s">
+        <v>22</v>
+      </c>
+      <c r="E22">
+        <v>3</v>
+      </c>
+      <c r="F22">
+        <v>1</v>
+      </c>
+      <c r="G22">
+        <v>51.213492</v>
+      </c>
+      <c r="H22">
+        <v>153.640476</v>
+      </c>
+      <c r="I22">
+        <v>0.1277360883085496</v>
+      </c>
+      <c r="J22">
+        <v>0.1277360883085496</v>
+      </c>
+      <c r="K22">
+        <v>2</v>
+      </c>
+      <c r="L22">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="M22">
+        <v>0.1340643333333333</v>
+      </c>
+      <c r="N22">
+        <v>0.402193</v>
+      </c>
+      <c r="O22">
+        <v>0.05944121623988301</v>
+      </c>
+      <c r="P22">
+        <v>0.05944121623988302</v>
+      </c>
+      <c r="Q22">
+        <v>6.865902662651999</v>
+      </c>
+      <c r="R22">
+        <v>61.793123963868</v>
+      </c>
+      <c r="S22">
+        <v>0.007592788446785289</v>
+      </c>
+      <c r="T22">
+        <v>0.007592788446785292</v>
+      </c>
+    </row>
+    <row r="23" spans="1:20">
+      <c r="A23" t="s">
+        <v>23</v>
+      </c>
+      <c r="B23" t="s">
+        <v>26</v>
+      </c>
+      <c r="C23" t="s">
+        <v>27</v>
+      </c>
+      <c r="D23" t="s">
+        <v>23</v>
+      </c>
+      <c r="E23">
+        <v>3</v>
+      </c>
+      <c r="F23">
+        <v>1</v>
+      </c>
+      <c r="G23">
+        <v>51.213492</v>
+      </c>
+      <c r="H23">
+        <v>153.640476</v>
+      </c>
+      <c r="I23">
+        <v>0.1277360883085496</v>
+      </c>
+      <c r="J23">
+        <v>0.1277360883085496</v>
+      </c>
+      <c r="K23">
+        <v>3</v>
+      </c>
+      <c r="L23">
+        <v>1</v>
+      </c>
+      <c r="M23">
+        <v>0.7546816666666668</v>
+      </c>
+      <c r="N23">
+        <v>2.264045</v>
+      </c>
+      <c r="O23">
+        <v>0.3346094746100156</v>
+      </c>
+      <c r="P23">
+        <v>0.3346094746100156</v>
+      </c>
+      <c r="Q23">
+        <v>38.64988349838001</v>
+      </c>
+      <c r="R23">
+        <v>347.8489514854201</v>
+      </c>
+      <c r="S23">
+        <v>0.04274170539766233</v>
+      </c>
+      <c r="T23">
+        <v>0.04274170539766234</v>
+      </c>
+    </row>
+    <row r="24" spans="1:20">
+      <c r="A24" t="s">
+        <v>23</v>
+      </c>
+      <c r="B24" t="s">
+        <v>26</v>
+      </c>
+      <c r="C24" t="s">
+        <v>27</v>
+      </c>
+      <c r="D24" t="s">
+        <v>24</v>
+      </c>
+      <c r="E24">
+        <v>3</v>
+      </c>
+      <c r="F24">
+        <v>1</v>
+      </c>
+      <c r="G24">
+        <v>51.213492</v>
+      </c>
+      <c r="H24">
+        <v>153.640476</v>
+      </c>
+      <c r="I24">
+        <v>0.1277360883085496</v>
+      </c>
+      <c r="J24">
+        <v>0.1277360883085496</v>
+      </c>
+      <c r="K24">
+        <v>1</v>
+      </c>
+      <c r="L24">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="M24">
+        <v>0.01539166666666667</v>
+      </c>
+      <c r="N24">
+        <v>0.046175</v>
+      </c>
+      <c r="O24">
+        <v>0.00682433100495682</v>
+      </c>
+      <c r="P24">
+        <v>0.006824331004956822</v>
+      </c>
+      <c r="Q24">
+        <v>0.7882609977</v>
+      </c>
+      <c r="R24">
+        <v>7.0943489793</v>
+      </c>
+      <c r="S24">
+        <v>0.0008717133478959374</v>
+      </c>
+      <c r="T24">
+        <v>0.0008717133478959378</v>
+      </c>
+    </row>
+    <row r="25" spans="1:20">
+      <c r="A25" t="s">
+        <v>23</v>
+      </c>
+      <c r="B25" t="s">
+        <v>26</v>
+      </c>
+      <c r="C25" t="s">
+        <v>27</v>
+      </c>
+      <c r="D25" t="s">
+        <v>25</v>
+      </c>
+      <c r="E25">
+        <v>3</v>
+      </c>
+      <c r="F25">
+        <v>1</v>
+      </c>
+      <c r="G25">
+        <v>51.213492</v>
+      </c>
+      <c r="H25">
+        <v>153.640476</v>
+      </c>
+      <c r="I25">
+        <v>0.1277360883085496</v>
+      </c>
+      <c r="J25">
+        <v>0.1277360883085496</v>
+      </c>
+      <c r="K25">
+        <v>3</v>
+      </c>
+      <c r="L25">
+        <v>1</v>
+      </c>
+      <c r="M25">
+        <v>0.9440006666666667</v>
+      </c>
+      <c r="N25">
+        <v>2.832002</v>
+      </c>
+      <c r="O25">
+        <v>0.4185494110384348</v>
+      </c>
+      <c r="P25">
+        <v>0.4185494110384348</v>
+      </c>
+      <c r="Q25">
+        <v>48.345570590328</v>
+      </c>
+      <c r="R25">
+        <v>435.110135312952</v>
+      </c>
+      <c r="S25">
+        <v>0.05346386452989693</v>
+      </c>
+      <c r="T25">
+        <v>0.05346386452989695</v>
+      </c>
+    </row>
+    <row r="26" spans="1:20">
+      <c r="A26" t="s">
+        <v>24</v>
+      </c>
+      <c r="B26" t="s">
+        <v>26</v>
+      </c>
+      <c r="C26" t="s">
+        <v>27</v>
+      </c>
+      <c r="D26" t="s">
+        <v>20</v>
+      </c>
+      <c r="E26">
+        <v>3</v>
+      </c>
+      <c r="F26">
+        <v>1</v>
+      </c>
+      <c r="G26">
+        <v>266.7063343333334</v>
+      </c>
+      <c r="H26">
+        <v>800.119003</v>
+      </c>
+      <c r="I26">
+        <v>0.6652157965493198</v>
+      </c>
+      <c r="J26">
+        <v>0.6652157965493199</v>
+      </c>
+      <c r="K26">
+        <v>3</v>
+      </c>
+      <c r="L26">
+        <v>1</v>
+      </c>
+      <c r="M26">
+        <v>0.3169463333333333</v>
+      </c>
+      <c r="N26">
+        <v>0.950839</v>
+      </c>
+      <c r="O26">
+        <v>0.1405271265494778</v>
+      </c>
+      <c r="P26">
+        <v>0.1405271265494778</v>
+      </c>
+      <c r="Q26">
+        <v>84.53159474372411</v>
+      </c>
+      <c r="R26">
+        <v>760.784352693517</v>
+      </c>
+      <c r="S26">
+        <v>0.09348086442439796</v>
+      </c>
+      <c r="T26">
+        <v>0.09348086442439799</v>
+      </c>
+    </row>
+    <row r="27" spans="1:20">
+      <c r="A27" t="s">
+        <v>24</v>
+      </c>
+      <c r="B27" t="s">
+        <v>26</v>
+      </c>
+      <c r="C27" t="s">
+        <v>27</v>
+      </c>
+      <c r="D27" t="s">
+        <v>21</v>
+      </c>
+      <c r="E27">
+        <v>3</v>
+      </c>
+      <c r="F27">
+        <v>1</v>
+      </c>
+      <c r="G27">
+        <v>266.7063343333334</v>
+      </c>
+      <c r="H27">
+        <v>800.119003</v>
+      </c>
+      <c r="I27">
+        <v>0.6652157965493198</v>
+      </c>
+      <c r="J27">
+        <v>0.6652157965493199</v>
+      </c>
+      <c r="K27">
+        <v>2</v>
+      </c>
+      <c r="L27">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="M27">
+        <v>0.09032566666666668</v>
+      </c>
+      <c r="N27">
+        <v>0.270977</v>
+      </c>
+      <c r="O27">
+        <v>0.04004844055723193</v>
+      </c>
+      <c r="P27">
+        <v>0.04004844055723194</v>
+      </c>
+      <c r="Q27">
+        <v>24.09042745288123</v>
+      </c>
+      <c r="R27">
+        <v>216.813847075931</v>
+      </c>
+      <c r="S27">
+        <v>0.02664085528583713</v>
+      </c>
+      <c r="T27">
+        <v>0.02664085528583714</v>
+      </c>
+    </row>
+    <row r="28" spans="1:20">
+      <c r="A28" t="s">
+        <v>24</v>
+      </c>
+      <c r="B28" t="s">
+        <v>26</v>
+      </c>
+      <c r="C28" t="s">
+        <v>27</v>
+      </c>
+      <c r="D28" t="s">
+        <v>22</v>
+      </c>
+      <c r="E28">
+        <v>3</v>
+      </c>
+      <c r="F28">
+        <v>1</v>
+      </c>
+      <c r="G28">
+        <v>266.7063343333334</v>
+      </c>
+      <c r="H28">
+        <v>800.119003</v>
+      </c>
+      <c r="I28">
+        <v>0.6652157965493198</v>
+      </c>
+      <c r="J28">
+        <v>0.6652157965493199</v>
+      </c>
+      <c r="K28">
+        <v>2</v>
+      </c>
+      <c r="L28">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="M28">
+        <v>0.1340643333333333</v>
+      </c>
+      <c r="N28">
+        <v>0.402193</v>
+      </c>
+      <c r="O28">
+        <v>0.05944121623988301</v>
+      </c>
+      <c r="P28">
+        <v>0.05944121623988302</v>
+      </c>
+      <c r="Q28">
+        <v>35.75580690817544</v>
+      </c>
+      <c r="R28">
+        <v>321.802262173579</v>
+      </c>
+      <c r="S28">
+        <v>0.03954123600887414</v>
+      </c>
+      <c r="T28">
+        <v>0.03954123600887416</v>
+      </c>
+    </row>
+    <row r="29" spans="1:20">
+      <c r="A29" t="s">
+        <v>24</v>
+      </c>
+      <c r="B29" t="s">
+        <v>26</v>
+      </c>
+      <c r="C29" t="s">
+        <v>27</v>
+      </c>
+      <c r="D29" t="s">
+        <v>23</v>
+      </c>
+      <c r="E29">
+        <v>3</v>
+      </c>
+      <c r="F29">
+        <v>1</v>
+      </c>
+      <c r="G29">
+        <v>266.7063343333334</v>
+      </c>
+      <c r="H29">
+        <v>800.119003</v>
+      </c>
+      <c r="I29">
+        <v>0.6652157965493198</v>
+      </c>
+      <c r="J29">
+        <v>0.6652157965493199</v>
+      </c>
+      <c r="K29">
+        <v>3</v>
+      </c>
+      <c r="L29">
+        <v>1</v>
+      </c>
+      <c r="M29">
+        <v>0.7546816666666668</v>
+      </c>
+      <c r="N29">
+        <v>2.264045</v>
+      </c>
+      <c r="O29">
+        <v>0.3346094746100156</v>
+      </c>
+      <c r="P29">
+        <v>0.3346094746100156</v>
+      </c>
+      <c r="Q29">
+        <v>201.2783809052373</v>
+      </c>
+      <c r="R29">
+        <v>1811.505428147135</v>
+      </c>
+      <c r="S29">
+        <v>0.2225875081856509</v>
+      </c>
+      <c r="T29">
+        <v>0.222587508185651</v>
+      </c>
+    </row>
+    <row r="30" spans="1:20">
+      <c r="A30" t="s">
+        <v>24</v>
+      </c>
+      <c r="B30" t="s">
+        <v>26</v>
+      </c>
+      <c r="C30" t="s">
+        <v>27</v>
+      </c>
+      <c r="D30" t="s">
+        <v>24</v>
+      </c>
+      <c r="E30">
+        <v>3</v>
+      </c>
+      <c r="F30">
+        <v>1</v>
+      </c>
+      <c r="G30">
+        <v>266.7063343333334</v>
+      </c>
+      <c r="H30">
+        <v>800.119003</v>
+      </c>
+      <c r="I30">
+        <v>0.6652157965493198</v>
+      </c>
+      <c r="J30">
+        <v>0.6652157965493199</v>
+      </c>
+      <c r="K30">
+        <v>1</v>
+      </c>
+      <c r="L30">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="M30">
+        <v>0.01539166666666667</v>
+      </c>
+      <c r="N30">
+        <v>0.046175</v>
+      </c>
+      <c r="O30">
+        <v>0.00682433100495682</v>
+      </c>
+      <c r="P30">
+        <v>0.006824331004956822</v>
+      </c>
+      <c r="Q30">
+        <v>4.105054995947222</v>
+      </c>
+      <c r="R30">
+        <v>36.945494963525</v>
+      </c>
+      <c r="S30">
+        <v>0.004539652785378571</v>
+      </c>
+      <c r="T30">
+        <v>0.004539652785378573</v>
+      </c>
+    </row>
+    <row r="31" spans="1:20">
+      <c r="A31" t="s">
+        <v>24</v>
+      </c>
+      <c r="B31" t="s">
+        <v>26</v>
+      </c>
+      <c r="C31" t="s">
+        <v>27</v>
+      </c>
+      <c r="D31" t="s">
+        <v>25</v>
+      </c>
+      <c r="E31">
+        <v>3</v>
+      </c>
+      <c r="F31">
+        <v>1</v>
+      </c>
+      <c r="G31">
+        <v>266.7063343333334</v>
+      </c>
+      <c r="H31">
+        <v>800.119003</v>
+      </c>
+      <c r="I31">
+        <v>0.6652157965493198</v>
+      </c>
+      <c r="J31">
+        <v>0.6652157965493199</v>
+      </c>
+      <c r="K31">
+        <v>3</v>
+      </c>
+      <c r="L31">
+        <v>1</v>
+      </c>
+      <c r="M31">
+        <v>0.9440006666666667</v>
+      </c>
+      <c r="N31">
+        <v>2.832002</v>
+      </c>
+      <c r="O31">
+        <v>0.4185494110384348</v>
+      </c>
+      <c r="P31">
+        <v>0.4185494110384348</v>
+      </c>
+      <c r="Q31">
+        <v>251.7709574148896</v>
+      </c>
+      <c r="R31">
+        <v>2265.938616734006</v>
+      </c>
+      <c r="S31">
+        <v>0.2784256798591811</v>
+      </c>
+      <c r="T31">
+        <v>0.2784256798591812</v>
+      </c>
+    </row>
+    <row r="32" spans="1:20">
+      <c r="A32" t="s">
+        <v>25</v>
+      </c>
+      <c r="B32" t="s">
+        <v>26</v>
+      </c>
+      <c r="C32" t="s">
+        <v>27</v>
+      </c>
+      <c r="D32" t="s">
+        <v>20</v>
+      </c>
+      <c r="E32">
+        <v>3</v>
+      </c>
+      <c r="F32">
+        <v>1</v>
+      </c>
+      <c r="G32">
+        <v>1.760055666666666</v>
+      </c>
+      <c r="H32">
+        <v>5.280167</v>
+      </c>
+      <c r="I32">
+        <v>0.004389910105432693</v>
+      </c>
+      <c r="J32">
+        <v>0.004389910105432695</v>
+      </c>
+      <c r="K32">
+        <v>3</v>
+      </c>
+      <c r="L32">
+        <v>1</v>
+      </c>
+      <c r="M32">
+        <v>0.3169463333333333</v>
+      </c>
+      <c r="N32">
+        <v>0.950839</v>
+      </c>
+      <c r="O32">
+        <v>0.1405271265494778</v>
+      </c>
+      <c r="P32">
+        <v>0.1405271265494778</v>
+      </c>
+      <c r="Q32">
+        <v>0.5578431900125554</v>
+      </c>
+      <c r="R32">
+        <v>5.020588710113</v>
+      </c>
+      <c r="S32">
+        <v>0.0006169014529269716</v>
+      </c>
+      <c r="T32">
+        <v>0.0006169014529269719</v>
+      </c>
+    </row>
+    <row r="33" spans="1:20">
+      <c r="A33" t="s">
+        <v>25</v>
+      </c>
+      <c r="B33" t="s">
+        <v>26</v>
+      </c>
+      <c r="C33" t="s">
+        <v>27</v>
+      </c>
+      <c r="D33" t="s">
+        <v>21</v>
+      </c>
+      <c r="E33">
+        <v>3</v>
+      </c>
+      <c r="F33">
+        <v>1</v>
+      </c>
+      <c r="G33">
+        <v>1.760055666666666</v>
+      </c>
+      <c r="H33">
+        <v>5.280167</v>
+      </c>
+      <c r="I33">
+        <v>0.004389910105432693</v>
+      </c>
+      <c r="J33">
+        <v>0.004389910105432695</v>
+      </c>
+      <c r="K33">
+        <v>2</v>
+      </c>
+      <c r="L33">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="M33">
+        <v>0.09032566666666668</v>
+      </c>
+      <c r="N33">
+        <v>0.270977</v>
+      </c>
+      <c r="O33">
+        <v>0.04004844055723193</v>
+      </c>
+      <c r="P33">
+        <v>0.04004844055723194</v>
+      </c>
+      <c r="Q33">
+        <v>0.1589782014621111</v>
+      </c>
+      <c r="R33">
+        <v>1.430803813159</v>
+      </c>
+      <c r="S33">
+        <v>0.000175809053909013</v>
+      </c>
+      <c r="T33">
+        <v>0.0001758090539090131</v>
+      </c>
+    </row>
+    <row r="34" spans="1:20">
+      <c r="A34" t="s">
+        <v>25</v>
+      </c>
+      <c r="B34" t="s">
+        <v>26</v>
+      </c>
+      <c r="C34" t="s">
+        <v>27</v>
+      </c>
+      <c r="D34" t="s">
+        <v>22</v>
+      </c>
+      <c r="E34">
+        <v>3</v>
+      </c>
+      <c r="F34">
+        <v>1</v>
+      </c>
+      <c r="G34">
+        <v>1.760055666666666</v>
+      </c>
+      <c r="H34">
+        <v>5.280167</v>
+      </c>
+      <c r="I34">
+        <v>0.004389910105432693</v>
+      </c>
+      <c r="J34">
+        <v>0.004389910105432695</v>
+      </c>
+      <c r="K34">
+        <v>2</v>
+      </c>
+      <c r="L34">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="M34">
+        <v>0.1340643333333333</v>
+      </c>
+      <c r="N34">
+        <v>0.402193</v>
+      </c>
+      <c r="O34">
+        <v>0.05944121623988301</v>
+      </c>
+      <c r="P34">
+        <v>0.05944121623988302</v>
+      </c>
+      <c r="Q34">
+        <v>0.2359606895812222</v>
+      </c>
+      <c r="R34">
+        <v>2.123646206231</v>
+      </c>
+      <c r="S34">
+        <v>0.0002609415958506723</v>
+      </c>
+      <c r="T34">
+        <v>0.0002609415958506725</v>
+      </c>
+    </row>
+    <row r="35" spans="1:20">
+      <c r="A35" t="s">
+        <v>25</v>
+      </c>
+      <c r="B35" t="s">
+        <v>26</v>
+      </c>
+      <c r="C35" t="s">
+        <v>27</v>
+      </c>
+      <c r="D35" t="s">
+        <v>23</v>
+      </c>
+      <c r="E35">
+        <v>3</v>
+      </c>
+      <c r="F35">
+        <v>1</v>
+      </c>
+      <c r="G35">
+        <v>1.760055666666666</v>
+      </c>
+      <c r="H35">
+        <v>5.280167</v>
+      </c>
+      <c r="I35">
+        <v>0.004389910105432693</v>
+      </c>
+      <c r="J35">
+        <v>0.004389910105432695</v>
+      </c>
+      <c r="K35">
+        <v>3</v>
+      </c>
+      <c r="L35">
+        <v>1</v>
+      </c>
+      <c r="M35">
+        <v>0.7546816666666668</v>
+      </c>
+      <c r="N35">
+        <v>2.264045</v>
+      </c>
+      <c r="O35">
+        <v>0.3346094746100156</v>
+      </c>
+      <c r="P35">
+        <v>0.3346094746100156</v>
+      </c>
+      <c r="Q35">
+        <v>1.328281743946111</v>
+      </c>
+      <c r="R35">
+        <v>11.954535695515</v>
+      </c>
+      <c r="S35">
+        <v>0.001468905513964031</v>
+      </c>
+      <c r="T35">
+        <v>0.001468905513964032</v>
+      </c>
+    </row>
+    <row r="36" spans="1:20">
+      <c r="A36" t="s">
+        <v>25</v>
+      </c>
+      <c r="B36" t="s">
+        <v>26</v>
+      </c>
+      <c r="C36" t="s">
+        <v>27</v>
+      </c>
+      <c r="D36" t="s">
+        <v>24</v>
+      </c>
+      <c r="E36">
+        <v>3</v>
+      </c>
+      <c r="F36">
+        <v>1</v>
+      </c>
+      <c r="G36">
+        <v>1.760055666666666</v>
+      </c>
+      <c r="H36">
+        <v>5.280167</v>
+      </c>
+      <c r="I36">
+        <v>0.004389910105432693</v>
+      </c>
+      <c r="J36">
+        <v>0.004389910105432695</v>
+      </c>
+      <c r="K36">
+        <v>1</v>
+      </c>
+      <c r="L36">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="M36">
+        <v>0.01539166666666667</v>
+      </c>
+      <c r="N36">
+        <v>0.046175</v>
+      </c>
+      <c r="O36">
+        <v>0.00682433100495682</v>
+      </c>
+      <c r="P36">
+        <v>0.006824331004956822</v>
+      </c>
+      <c r="Q36">
+        <v>0.02709019013611111</v>
+      </c>
+      <c r="R36">
+        <v>0.243811711225</v>
+      </c>
+      <c r="S36">
+        <v>2.995819964147759E-05</v>
+      </c>
+      <c r="T36">
+        <v>2.995819964147761E-05</v>
+      </c>
+    </row>
+    <row r="37" spans="1:20">
+      <c r="A37" t="s">
+        <v>25</v>
+      </c>
+      <c r="B37" t="s">
+        <v>26</v>
+      </c>
+      <c r="C37" t="s">
+        <v>27</v>
+      </c>
+      <c r="D37" t="s">
+        <v>25</v>
+      </c>
+      <c r="E37">
+        <v>3</v>
+      </c>
+      <c r="F37">
+        <v>1</v>
+      </c>
+      <c r="G37">
+        <v>1.760055666666666</v>
+      </c>
+      <c r="H37">
+        <v>5.280167</v>
+      </c>
+      <c r="I37">
+        <v>0.004389910105432693</v>
+      </c>
+      <c r="J37">
+        <v>0.004389910105432695</v>
+      </c>
+      <c r="K37">
+        <v>3</v>
+      </c>
+      <c r="L37">
+        <v>1</v>
+      </c>
+      <c r="M37">
+        <v>0.9440006666666667</v>
+      </c>
+      <c r="N37">
+        <v>2.832002</v>
+      </c>
+      <c r="O37">
+        <v>0.4185494110384348</v>
+      </c>
+      <c r="P37">
+        <v>0.4185494110384348</v>
+      </c>
+      <c r="Q37">
+        <v>1.661493722703778</v>
+      </c>
+      <c r="R37">
+        <v>14.953443504334</v>
+      </c>
+      <c r="S37">
+        <v>0.001837394289140527</v>
+      </c>
+      <c r="T37">
+        <v>0.001837394289140528</v>
       </c>
     </row>
   </sheetData>
